--- a/biology/Zoologie/Indopadilla_sonsorol/Indopadilla_sonsorol.xlsx
+++ b/biology/Zoologie/Indopadilla_sonsorol/Indopadilla_sonsorol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indopadilla sonsorol est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indopadilla sonsorol est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Sonsorol aux Palaos[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Sonsorol aux Palaos,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 8,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 8,1 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Bavia sonsorol par Berry, Beatty et Prószyński en 1997. Elle est placée dans le genre Indopadilla par Maddison, Beattie, Marathe, Ng, Kanesharatnam, Benjamin et Kunte en 2020[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Bavia sonsorol par Berry, Beatty et Prószyński en 1997. Elle est placée dans le genre Indopadilla par Maddison, Beattie, Marathe, Ng, Kanesharatnam, Benjamin et Kunte en 2020.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Sonsorol.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Berry, Beatty &amp; Prószyński, 1997 : « Salticidae of the Pacific Islands. II. Distribution of nine genera, with descriptions of eleven new species. » Journal of Arachnology, vol. 25, no 2, p. 109-136 (texte intégral).</t>
         </is>
